--- a/template/deposit/customer.xlsx
+++ b/template/deposit/customer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\repo\utils\template\deposit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29CE06E7-12DE-4663-A242-B2554670019E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339CF72C-42BC-44A4-9F11-F26252DADF23}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$Q$1:$T$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!#REF!</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -63,19 +63,15 @@
   </si>
   <si>
     <t>用户</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>姓名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>部门</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>状态</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -469,53 +465,45 @@
         <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="2" t="s">
-        <v>1</v>
       </c>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
       <c r="I2" s="1" t="s">
         <v>3</v>
       </c>
@@ -540,24 +528,32 @@
       <c r="P2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
+      <c r="Q2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="Q1:T1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="T1:T2"/>
     <mergeCell ref="I1:L1"/>
-    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
